--- a/Contabilidad nueva.xlsx
+++ b/Contabilidad nueva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Compra</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Cristobal</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Caja electrónica</t>
+  </si>
+  <si>
+    <t>Arirang</t>
   </si>
 </sst>
 </file>
@@ -385,16 +394,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -700,7 +709,7 @@
   <dimension ref="A4:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,18 +812,18 @@
         <v>1800</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:I13" si="0">E6-H6</f>
+        <f t="shared" ref="I6:I14" si="0">E6-H6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="16">
-        <f>I7+I13</f>
-        <v>23280</v>
+      <c r="N6" s="14">
+        <f>I7+I13+I14</f>
+        <v>24420</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -846,11 +855,11 @@
         <f t="shared" si="0"/>
         <v>8310</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="15">
         <f>I11+I12</f>
         <v>1900</v>
       </c>
@@ -1036,15 +1045,34 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42018</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1140</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>

--- a/Contabilidad nueva.xlsx
+++ b/Contabilidad nueva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="9288"/>
+    <workbookView xWindow="285" yWindow="45" windowWidth="15600" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Compra</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Pernos varios</t>
   </si>
   <si>
-    <t>Pines y terminarles</t>
-  </si>
-  <si>
     <t>Gomas borde</t>
   </si>
   <si>
@@ -151,6 +148,18 @@
   </si>
   <si>
     <t>Arirang</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Pines y terminales</t>
   </si>
 </sst>
 </file>
@@ -706,30 +715,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N15"/>
+  <dimension ref="A4:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
@@ -756,12 +765,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -786,12 +795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -812,26 +821,26 @@
         <v>1800</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:I14" si="0">E6-H6</f>
+        <f t="shared" ref="I6:I16" si="0">E6-H6</f>
         <v>0</v>
       </c>
       <c r="L6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="N6" s="14">
-        <f>I7+I13+I14</f>
-        <v>24420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>I7+I13+I14+I15+I16</f>
+        <v>24669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -857,19 +866,19 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="15">
         <f>I11+I12</f>
         <v>1900</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -894,9 +903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -924,12 +933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -954,15 +963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>42017</v>
@@ -971,7 +980,7 @@
         <v>1250</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -984,15 +993,15 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>42017</v>
@@ -1001,7 +1010,7 @@
         <v>650</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -1014,15 +1023,15 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="2">
         <v>42016</v>
@@ -1044,15 +1053,15 @@
         <v>14970</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="2">
         <v>42018</v>
@@ -1074,16 +1083,219 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42018</v>
+      </c>
+      <c r="E15" s="3">
+        <v>129</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42018</v>
+      </c>
+      <c r="E16" s="3">
+        <v>120</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1100,7 +1312,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1112,7 +1324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contabilidad nueva.xlsx
+++ b/Contabilidad nueva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Compra</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Pines y terminales</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Total gastado</t>
+  </si>
+  <si>
+    <t>Diferencia adeudada</t>
   </si>
 </sst>
 </file>
@@ -717,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +803,9 @@
         <f>E5-H5</f>
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -824,6 +836,9 @@
         <f t="shared" ref="I6:I16" si="0">E6-H6</f>
         <v>0</v>
       </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="16" t="s">
         <v>38</v>
       </c>
@@ -864,6 +879,9 @@
         <f t="shared" si="0"/>
         <v>8310</v>
       </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="13" t="s">
         <v>40</v>
@@ -902,6 +920,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -932,6 +953,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -962,6 +986,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -992,6 +1019,9 @@
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1022,6 +1052,9 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1052,6 +1085,9 @@
         <f t="shared" si="0"/>
         <v>14970</v>
       </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1082,6 +1118,9 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1112,6 +1151,9 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1141,6 +1183,9 @@
       <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1156,10 +1201,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <f>SUM(E5:E17)</f>
+        <v>45511</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
@@ -1167,10 +1217,15 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <f>E18-20000</f>
+        <v>25511</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="3"/>
